--- a/FACT Analyse/analysis.xlsx
+++ b/FACT Analyse/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Downloads\Abschlussarbeit_H-BRS\FACT Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41F1E3B-6FDC-4D5E-910D-D8DC52A14524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566CA6D4-0A9F-42C7-A8F8-309A0DBF3D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -26,41 +26,39 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Days since last release'!$O$10:$O$16</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Days since last release'!$P$10:$P$16</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Exploit Mitigations'!$Y$27</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Exploit Mitigations'!$Y$28:$Y$34</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Exploit Mitigations'!$X$61:$X$67</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Exploit Mitigations'!$Y$60</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Exploit Mitigations'!$Y$61:$Y$67</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Exploit Mitigations'!$AA$93</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Exploit Mitigations'!$AA$94:$AA$100</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Exploit Mitigations'!$AB$93</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Exploit Mitigations'!$AB$94:$AB$100</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Exploit Mitigations'!$AC$93</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Days since last release'!$O$10:$O$16</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Exploit Mitigations'!$AC$94:$AC$100</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Exploit Mitigations'!$X$94:$X$100</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Exploit Mitigations'!$Y$93</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Exploit Mitigations'!$Y$94:$Y$100</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Exploit Mitigations'!$Z$93</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Exploit Mitigations'!$Z$94:$Z$100</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Exploit Mitigations'!$X$46:$X$52</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Exploit Mitigations'!$Y$45</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Exploit Mitigations'!$Y$46:$Y$52</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Exploit Mitigations'!$X$15:$X$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Days since last release'!$P$10:$P$16</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Exploit Mitigations'!$Y$14</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Exploit Mitigations'!$Y$15:$Y$21</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Private Keys'!$A$11:$A$17</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Private Keys'!$B$11:$B$17</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Login Credentials'!$A$20:$A$26</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Login Credentials'!$B$19</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'Login Credentials'!$B$20:$B$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">CVEs!$A$12:$A$18</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">CVEs!$B$12:$B$18</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Exploit Mitigations'!$X$77:$X$83</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Exploit Mitigations'!$Y$76</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Exploit Mitigations'!$Y$77:$Y$83</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Exploit Mitigations'!$X$28:$X$34</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Exploit Mitigations'!$AB$94:$AB$100</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Exploit Mitigations'!$AC$93</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Exploit Mitigations'!$AC$94:$AC$100</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Exploit Mitigations'!$X$94:$X$100</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Exploit Mitigations'!$Y$93</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Exploit Mitigations'!$Y$94:$Y$100</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Exploit Mitigations'!$Z$93</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Exploit Mitigations'!$Z$94:$Z$100</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Exploit Mitigations'!$X$61:$X$67</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Exploit Mitigations'!$Y$60</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">CVEs!$A$12:$A$18</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Exploit Mitigations'!$Y$61:$Y$67</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Exploit Mitigations'!$X$15:$X$21</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Exploit Mitigations'!$Y$14</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Exploit Mitigations'!$Y$15:$Y$21</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Exploit Mitigations'!$X$28:$X$34</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Exploit Mitigations'!$Y$27</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Exploit Mitigations'!$Y$28:$Y$34</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Exploit Mitigations'!$X$46:$X$52</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Exploit Mitigations'!$Y$45</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Exploit Mitigations'!$Y$46:$Y$52</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">CVEs!$B$12:$B$18</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Private Keys'!$A$11:$A$17</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Private Keys'!$B$11:$B$17</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Login Credentials'!$A$20:$A$26</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Login Credentials'!$B$19</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Login Credentials'!$B$20:$B$26</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Exploit Mitigations'!$X$77:$X$83</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Exploit Mitigations'!$Y$76</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Exploit Mitigations'!$Y$77:$Y$83</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Exploit Mitigations'!$AA$93</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Exploit Mitigations'!$AA$94:$AA$100</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Exploit Mitigations'!$AB$93</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -600,7 +598,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -611,10 +609,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1832,6 +1833,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2394,6 +2426,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3738,6 +3801,99 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6B10385F-645F-4065-A2FA-0E516E5EEF8D}" type="VALUE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[WERT]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-2E88-4711-B835-7B2766DA8560}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:extLst>
@@ -3814,8 +3970,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4331,7 +4488,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4363,7 +4520,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4419,17 +4576,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -4453,13 +4610,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -4563,7 +4721,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -4655,7 +4813,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -4752,20 +4910,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4788,7 +4932,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4815,12 +4959,53 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1695908511"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -4839,7 +5024,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -6427,6 +6612,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6961,6 +7177,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7524,6 +7771,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7566,10 +7844,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7644,10 +7922,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.34</cx:f>
+        <cx:f>_xlchart.v1.32</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.36</cx:f>
+        <cx:f>_xlchart.v1.34</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7702,7 +7980,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{85CB3BA0-948A-4761-A397-24B47A292551}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.35</cx:f>
+              <cx:f>_xlchart.v1.33</cx:f>
               <cx:v>Number of Hard-Coded Login Credentials</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7732,10 +8010,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7813,10 +8091,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7854,7 +8132,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{74781C89-E927-480E-80DD-826A021A7BE6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>Canary</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7884,10 +8162,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7925,7 +8203,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CD3D3AFB-F0EC-4041-B623-F269D1568799}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.25</cx:f>
               <cx:v>FORTIFY_SOURCE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7955,10 +8233,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8001,7 +8279,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1CA3B0AF-FBE2-488E-B37A-23AFB12F8190}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.27</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>NX</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8031,10 +8309,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8072,7 +8350,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CB34B628-E6B1-446E-B79D-F3313E9206C4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:f>_xlchart.v1.19</cx:f>
               <cx:v>PIE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8102,10 +8380,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8160,7 +8438,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{806C733D-0DB2-4503-BAB8-C8F2E4F8C162}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>RELRO</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8190,42 +8468,42 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8263,7 +8541,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8555E2C7-4E25-4549-A644-97BBD3A7267B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>Canary</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8276,7 +8554,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F00E8184-5E4E-4621-9391-EC6CF84CA981}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>FORTIFY_SOURCE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8289,7 +8567,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{136007B3-B9EF-484E-B7AA-897EB23C65F3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>NX</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8302,7 +8580,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0E891627-7E79-4324-80D2-F49DB49D2A1D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>PIE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8315,7 +8593,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7ED7D3C9-0D67-4F6A-8318-BFE6DECE82D6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.11</cx:f>
               <cx:v>RELRO</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8346,10 +8624,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -18536,7 +18814,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -18547,7 +18825,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -18570,18 +18848,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -18593,7 +18871,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -18601,14 +18879,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -18640,45 +18915,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -18690,34 +18955,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -18739,13 +19000,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -18755,7 +19018,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -18764,131 +19027,142 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -18909,7 +19183,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -18917,7 +19191,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -18948,10 +19222,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -18972,7 +19246,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -18981,14 +19255,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -19002,26 +19276,27 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -19035,17 +19310,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -19053,8 +19317,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -22661,8 +22931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -22692,34 +22962,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="10"/>
+      <c r="T1" s="11"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
@@ -22789,7 +23059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" ht="28">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -22847,7 +23117,7 @@
       <c r="S3">
         <v>2</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="U3">
@@ -22857,7 +23127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" ht="28">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -22915,7 +23185,7 @@
       <c r="S4">
         <v>2</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="12" t="s">
         <v>30</v>
       </c>
       <c r="U4">
@@ -23426,7 +23696,7 @@
         <f t="shared" si="0"/>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f>100%-D9</f>
         <v>0.92727272727272725</v>
       </c>
@@ -23523,8 +23793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -23918,8 +24188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -24111,8 +24381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC100"/>
   <sheetViews>
-    <sheetView topLeftCell="H46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -26310,7 +26580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3739379-3DDD-44F6-A7F6-C36B7F0CAD1C}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>

--- a/FACT Analyse/analysis.xlsx
+++ b/FACT Analyse/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Downloads\Abschlussarbeit_H-BRS\FACT Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566CA6D4-0A9F-42C7-A8F8-309A0DBF3D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176FB1FC-EB2A-47C5-B5C8-10056894B39D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="19200" windowHeight="10060" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -22,43 +22,44 @@
     <sheet name="Exploit Mitigations" sheetId="5" r:id="rId7"/>
     <sheet name="Private Keys" sheetId="6" r:id="rId8"/>
     <sheet name="Login Credentials" sheetId="7" r:id="rId9"/>
+    <sheet name="Tabelle1" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Days since last release'!$O$10:$O$16</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Days since last release'!$P$10:$P$16</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Exploit Mitigations'!$AB$94:$AB$100</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Exploit Mitigations'!$AC$93</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Exploit Mitigations'!$AC$94:$AC$100</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Exploit Mitigations'!$X$94:$X$100</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Exploit Mitigations'!$Y$93</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Exploit Mitigations'!$Y$94:$Y$100</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Exploit Mitigations'!$Z$93</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Exploit Mitigations'!$Z$94:$Z$100</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Exploit Mitigations'!$X$61:$X$67</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Exploit Mitigations'!$Y$60</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Exploit Mitigations'!$X$94:$X$100</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Exploit Mitigations'!$Y$93</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Exploit Mitigations'!$Y$94:$Y$100</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Exploit Mitigations'!$Z$93</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Exploit Mitigations'!$Z$94:$Z$100</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Exploit Mitigations'!$X$15:$X$21</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Exploit Mitigations'!$Y$14</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Exploit Mitigations'!$Y$15:$Y$21</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Exploit Mitigations'!$X$77:$X$83</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Exploit Mitigations'!$Y$76</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">CVEs!$A$12:$A$18</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Exploit Mitigations'!$Y$61:$Y$67</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Exploit Mitigations'!$X$15:$X$21</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Exploit Mitigations'!$Y$14</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Exploit Mitigations'!$Y$15:$Y$21</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Exploit Mitigations'!$X$28:$X$34</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Exploit Mitigations'!$Y$27</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Exploit Mitigations'!$Y$28:$Y$34</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Exploit Mitigations'!$X$46:$X$52</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Exploit Mitigations'!$Y$45</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Exploit Mitigations'!$Y$46:$Y$52</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Exploit Mitigations'!$Y$77:$Y$83</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Exploit Mitigations'!$X$46:$X$52</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Exploit Mitigations'!$Y$45</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Exploit Mitigations'!$Y$46:$Y$52</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Exploit Mitigations'!$X$61:$X$67</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Exploit Mitigations'!$Y$60</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Exploit Mitigations'!$Y$61:$Y$67</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Exploit Mitigations'!$X$28:$X$34</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Exploit Mitigations'!$Y$27</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Exploit Mitigations'!$Y$28:$Y$34</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">CVEs!$B$12:$B$18</definedName>
     <definedName name="_xlchart.v1.30" hidden="1">'Private Keys'!$A$11:$A$17</definedName>
     <definedName name="_xlchart.v1.31" hidden="1">'Private Keys'!$B$11:$B$17</definedName>
     <definedName name="_xlchart.v1.32" hidden="1">'Login Credentials'!$A$20:$A$26</definedName>
     <definedName name="_xlchart.v1.33" hidden="1">'Login Credentials'!$B$19</definedName>
     <definedName name="_xlchart.v1.34" hidden="1">'Login Credentials'!$B$20:$B$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Exploit Mitigations'!$X$77:$X$83</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Exploit Mitigations'!$Y$76</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Exploit Mitigations'!$Y$77:$Y$83</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Exploit Mitigations'!$AA$93</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Exploit Mitigations'!$AA$94:$AA$100</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Exploit Mitigations'!$AB$93</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Exploit Mitigations'!$AA$93</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Exploit Mitigations'!$AA$94:$AA$100</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Exploit Mitigations'!$AB$93</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Exploit Mitigations'!$AB$94:$AB$100</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Exploit Mitigations'!$AC$93</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Exploit Mitigations'!$AC$94:$AC$100</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -611,10 +612,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -8091,10 +8092,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8132,7 +8133,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{74781C89-E927-480E-80DD-826A021A7BE6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>Canary</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8162,10 +8163,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8203,7 +8204,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CD3D3AFB-F0EC-4041-B623-F269D1568799}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.25</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>FORTIFY_SOURCE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8233,10 +8234,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8279,7 +8280,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1CA3B0AF-FBE2-488E-B37A-23AFB12F8190}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>NX</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8309,10 +8310,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8350,7 +8351,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CB34B628-E6B1-446E-B79D-F3313E9206C4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.25</cx:f>
               <cx:v>PIE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8380,10 +8381,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8438,7 +8439,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{806C733D-0DB2-4503-BAB8-C8F2E4F8C162}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.19</cx:f>
               <cx:v>RELRO</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8468,42 +8469,42 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8541,7 +8542,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8555E2C7-4E25-4549-A644-97BBD3A7267B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.11</cx:f>
               <cx:v>Canary</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8554,7 +8555,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F00E8184-5E4E-4621-9391-EC6CF84CA981}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>FORTIFY_SOURCE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8567,7 +8568,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{136007B3-B9EF-484E-B7AA-897EB23C65F3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>NX</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8580,7 +8581,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0E891627-7E79-4324-80D2-F49DB49D2A1D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>PIE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8593,7 +8594,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7ED7D3C9-0D67-4F6A-8318-BFE6DECE82D6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>RELRO</cx:v>
             </cx:txData>
           </cx:tx>
@@ -22962,34 +22963,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
@@ -23117,7 +23118,7 @@
       <c r="S3">
         <v>2</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="11" t="s">
         <v>30</v>
       </c>
       <c r="U3">
@@ -23185,7 +23186,7 @@
       <c r="S4">
         <v>2</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="11" t="s">
         <v>30</v>
       </c>
       <c r="U4">
@@ -23541,6 +23542,18 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308B11A6-FFD1-48B4-8DBE-8C8CBD00AC27}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/FACT Analyse/analysis.xlsx
+++ b/FACT Analyse/analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Downloads\Abschlussarbeit_H-BRS\FACT Analyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Henry\Downloads\Abschlussarbeit_H-BRS\FACT Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176FB1FC-EB2A-47C5-B5C8-10056894B39D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7E7C24-AD57-4C49-828D-E1C6FEF486D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="19200" windowHeight="10060" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -22,44 +22,43 @@
     <sheet name="Exploit Mitigations" sheetId="5" r:id="rId7"/>
     <sheet name="Private Keys" sheetId="6" r:id="rId8"/>
     <sheet name="Login Credentials" sheetId="7" r:id="rId9"/>
-    <sheet name="Tabelle1" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Days since last release'!$O$10:$O$16</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Days since last release'!$P$10:$P$16</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Exploit Mitigations'!$X$94:$X$100</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Exploit Mitigations'!$Y$93</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Exploit Mitigations'!$Y$94:$Y$100</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Exploit Mitigations'!$Z$93</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Exploit Mitigations'!$Z$94:$Z$100</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Exploit Mitigations'!$X$15:$X$21</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Exploit Mitigations'!$Y$14</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Exploit Mitigations'!$Y$15:$Y$21</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Exploit Mitigations'!$X$77:$X$83</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Exploit Mitigations'!$Y$76</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Exploit Mitigations'!$AA$93</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Exploit Mitigations'!$AA$94:$AA$100</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Exploit Mitigations'!$AB$93</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Exploit Mitigations'!$AB$94:$AB$100</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Exploit Mitigations'!$AC$93</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Exploit Mitigations'!$AC$94:$AC$100</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Exploit Mitigations'!$X$94:$X$100</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Exploit Mitigations'!$Y$93</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Exploit Mitigations'!$Y$94:$Y$100</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Exploit Mitigations'!$Z$93</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">CVEs!$A$12:$A$18</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Exploit Mitigations'!$Y$77:$Y$83</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Exploit Mitigations'!$Z$94:$Z$100</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">'Exploit Mitigations'!$X$46:$X$52</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">'Exploit Mitigations'!$Y$45</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">'Exploit Mitigations'!$Y$46:$Y$52</definedName>
     <definedName name="_xlchart.v1.24" hidden="1">'Exploit Mitigations'!$X$61:$X$67</definedName>
     <definedName name="_xlchart.v1.25" hidden="1">'Exploit Mitigations'!$Y$60</definedName>
     <definedName name="_xlchart.v1.26" hidden="1">'Exploit Mitigations'!$Y$61:$Y$67</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Exploit Mitigations'!$X$28:$X$34</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Exploit Mitigations'!$Y$27</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Exploit Mitigations'!$Y$28:$Y$34</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Exploit Mitigations'!$X$77:$X$83</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Exploit Mitigations'!$Y$76</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Exploit Mitigations'!$Y$77:$Y$83</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">CVEs!$B$12:$B$18</definedName>
     <definedName name="_xlchart.v1.30" hidden="1">'Private Keys'!$A$11:$A$17</definedName>
     <definedName name="_xlchart.v1.31" hidden="1">'Private Keys'!$B$11:$B$17</definedName>
     <definedName name="_xlchart.v1.32" hidden="1">'Login Credentials'!$A$20:$A$26</definedName>
     <definedName name="_xlchart.v1.33" hidden="1">'Login Credentials'!$B$19</definedName>
     <definedName name="_xlchart.v1.34" hidden="1">'Login Credentials'!$B$20:$B$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Exploit Mitigations'!$AA$93</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Exploit Mitigations'!$AA$94:$AA$100</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Exploit Mitigations'!$AB$93</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Exploit Mitigations'!$AB$94:$AB$100</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Exploit Mitigations'!$AC$93</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Exploit Mitigations'!$AC$94:$AC$100</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Exploit Mitigations'!$X$15:$X$21</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Exploit Mitigations'!$Y$14</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Exploit Mitigations'!$Y$15:$Y$21</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Exploit Mitigations'!$X$28:$X$34</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Exploit Mitigations'!$Y$27</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Exploit Mitigations'!$Y$28:$Y$34</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -8092,10 +8091,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8133,7 +8132,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{74781C89-E927-480E-80DD-826A021A7BE6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Canary</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8163,10 +8162,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8204,7 +8203,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CD3D3AFB-F0EC-4041-B623-F269D1568799}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>FORTIFY_SOURCE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8381,10 +8380,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8439,7 +8438,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{806C733D-0DB2-4503-BAB8-C8F2E4F8C162}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>RELRO</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8469,42 +8468,42 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8542,7 +8541,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8555E2C7-4E25-4549-A644-97BBD3A7267B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:f>_xlchart.v1.17</cx:f>
               <cx:v>Canary</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8555,7 +8554,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F00E8184-5E4E-4621-9391-EC6CF84CA981}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:f>_xlchart.v1.19</cx:f>
               <cx:v>FORTIFY_SOURCE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8568,7 +8567,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{136007B3-B9EF-484E-B7AA-897EB23C65F3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>NX</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8581,7 +8580,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0E891627-7E79-4324-80D2-F49DB49D2A1D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>PIE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8594,7 +8593,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7ED7D3C9-0D67-4F6A-8318-BFE6DECE82D6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>RELRO</cx:v>
             </cx:txData>
           </cx:tx>
@@ -21476,8 +21475,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7648575" y="3155950"/>
-              <a:ext cx="2486026" cy="2873375"/>
+              <a:off x="7724775" y="3209925"/>
+              <a:ext cx="2562226" cy="2924175"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -21636,8 +21635,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11976100" y="288925"/>
-              <a:ext cx="1816100" cy="2695575"/>
+              <a:off x="12233275" y="292100"/>
+              <a:ext cx="1866900" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -21971,8 +21970,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="29638626" y="1565275"/>
-              <a:ext cx="2343150" cy="2806700"/>
+              <a:off x="29946601" y="1590675"/>
+              <a:ext cx="2419350" cy="2857500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22049,8 +22048,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="29657675" y="4464050"/>
-              <a:ext cx="2324100" cy="2695575"/>
+              <a:off x="29965650" y="4543425"/>
+              <a:ext cx="2400300" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22127,8 +22126,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="29657675" y="7375525"/>
-              <a:ext cx="2343150" cy="2695575"/>
+              <a:off x="29965650" y="7505700"/>
+              <a:ext cx="2419350" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22205,8 +22204,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="29662437" y="10239375"/>
-              <a:ext cx="2347913" cy="2695575"/>
+              <a:off x="29970412" y="10420350"/>
+              <a:ext cx="2424113" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22283,8 +22282,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="29667200" y="13223875"/>
-              <a:ext cx="2343150" cy="2695575"/>
+              <a:off x="29975175" y="13458825"/>
+              <a:ext cx="2419350" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22361,8 +22360,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="22799115" y="16304183"/>
-              <a:ext cx="4848784" cy="2999069"/>
+              <a:off x="22878490" y="16593108"/>
+              <a:ext cx="5001184" cy="3053044"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22480,8 +22479,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12328525" y="190500"/>
-              <a:ext cx="2333625" cy="2692400"/>
+              <a:off x="12563475" y="193675"/>
+              <a:ext cx="2409825" cy="2740025"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22599,8 +22598,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10483850" y="177800"/>
-              <a:ext cx="2238375" cy="2695575"/>
+              <a:off x="10715625" y="180975"/>
+              <a:ext cx="2314575" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -22936,30 +22935,30 @@
       <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="6" width="16.75" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="10" width="23.58203125" customWidth="1"/>
+    <col min="9" max="10" width="23.625" customWidth="1"/>
     <col min="11" max="11" width="23.25" customWidth="1"/>
     <col min="12" max="12" width="10.75" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
     <col min="14" max="14" width="11.25" customWidth="1"/>
     <col min="15" max="15" width="14.75" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
     <col min="17" max="17" width="21" customWidth="1"/>
     <col min="18" max="18" width="17.25" customWidth="1"/>
     <col min="19" max="19" width="35" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" customWidth="1"/>
+    <col min="20" max="20" width="16.375" customWidth="1"/>
     <col min="21" max="21" width="23.25" customWidth="1"/>
     <col min="22" max="22" width="37.75" customWidth="1"/>
-    <col min="23" max="23" width="25.33203125" customWidth="1"/>
-    <col min="24" max="24" width="37.58203125" customWidth="1"/>
-    <col min="25" max="1024" width="10.83203125" customWidth="1"/>
+    <col min="23" max="23" width="25.375" customWidth="1"/>
+    <col min="24" max="24" width="37.625" customWidth="1"/>
+    <col min="25" max="1024" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -23060,7 +23059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="28">
+    <row r="3" spans="1:22" ht="28.5">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -23128,7 +23127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="28">
+    <row r="4" spans="1:22" ht="28.5">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -23545,18 +23544,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308B11A6-FFD1-48B4-8DBE-8C8CBD00AC27}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC8CDAC-A32A-463D-B45B-72E9FA4461F8}">
   <dimension ref="A1:E9"/>
@@ -23565,9 +23552,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23727,10 +23714,10 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="41.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -23810,11 +23797,11 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -24053,7 +24040,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -24142,49 +24129,49 @@
       <c r="D31" s="3"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="37" spans="2:5" ht="14.5">
+    <row r="37" spans="2:5" ht="15">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="2:5" ht="14.5">
+    <row r="38" spans="2:5" ht="15">
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
       <c r="D38" s="8"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="2:5" ht="14.5">
+    <row r="39" spans="2:5" ht="15">
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="2:5" ht="14.5">
+    <row r="40" spans="2:5" ht="15">
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
       <c r="D40" s="8"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="2:5" ht="14.5">
+    <row r="41" spans="2:5" ht="15">
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="2:5" ht="14.5">
+    <row r="42" spans="2:5" ht="15">
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="8"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="2:5" ht="14.5">
+    <row r="43" spans="2:5" ht="15">
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="2:5" ht="14.5">
+    <row r="44" spans="2:5" ht="15">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -24205,9 +24192,9 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24398,21 +24385,21 @@
       <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -26407,10 +26394,10 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -26597,9 +26584,9 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/FACT Analyse/analysis.xlsx
+++ b/FACT Analyse/analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Henry\Downloads\Abschlussarbeit_H-BRS\FACT Analyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benutzer\Henry\Downloads\Thesis\Abschlussarbeit_H-BRS\FACT Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7E7C24-AD57-4C49-828D-E1C6FEF486D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99632A1D-57D9-4D45-A51D-3EE4B03096C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -38,27 +38,27 @@
     <definedName name="_xlchart.v1.19" hidden="1">'Exploit Mitigations'!$Z$93</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">CVEs!$A$12:$A$18</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">'Exploit Mitigations'!$Z$94:$Z$100</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Exploit Mitigations'!$X$46:$X$52</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Exploit Mitigations'!$Y$45</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Exploit Mitigations'!$Y$46:$Y$52</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Exploit Mitigations'!$X$61:$X$67</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Exploit Mitigations'!$Y$60</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Exploit Mitigations'!$Y$61:$Y$67</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Exploit Mitigations'!$X$77:$X$83</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Exploit Mitigations'!$Y$76</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Exploit Mitigations'!$Y$77:$Y$83</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Exploit Mitigations'!$X$61:$X$67</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Exploit Mitigations'!$Y$60</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Exploit Mitigations'!$Y$61:$Y$67</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Exploit Mitigations'!$X$15:$X$21</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Exploit Mitigations'!$Y$14</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Exploit Mitigations'!$Y$15:$Y$21</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Exploit Mitigations'!$X$28:$X$34</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Exploit Mitigations'!$Y$27</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Exploit Mitigations'!$Y$28:$Y$34</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">CVEs!$B$12:$B$18</definedName>
     <definedName name="_xlchart.v1.30" hidden="1">'Private Keys'!$A$11:$A$17</definedName>
     <definedName name="_xlchart.v1.31" hidden="1">'Private Keys'!$B$11:$B$17</definedName>
     <definedName name="_xlchart.v1.32" hidden="1">'Login Credentials'!$A$20:$A$26</definedName>
     <definedName name="_xlchart.v1.33" hidden="1">'Login Credentials'!$B$19</definedName>
     <definedName name="_xlchart.v1.34" hidden="1">'Login Credentials'!$B$20:$B$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Exploit Mitigations'!$X$15:$X$21</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Exploit Mitigations'!$Y$14</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Exploit Mitigations'!$Y$15:$Y$21</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Exploit Mitigations'!$X$28:$X$34</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Exploit Mitigations'!$Y$27</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Exploit Mitigations'!$Y$28:$Y$34</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Exploit Mitigations'!$X$46:$X$52</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Exploit Mitigations'!$Y$45</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Exploit Mitigations'!$Y$46:$Y$52</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Exploit Mitigations'!$X$77:$X$83</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Exploit Mitigations'!$Y$76</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Exploit Mitigations'!$Y$77:$Y$83</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -673,62 +673,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Tage seit dem letzten Update pro Firmware-Abbild</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -774,7 +719,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1154,7 +1099,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1213,7 +1158,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1255,7 +1200,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2508,67 +2453,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Number of Private</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Keys per Firmware Image</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2905,7 +2790,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2931,7 +2816,7 @@
         <c:axId val="334163487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="12"/>
+          <c:max val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2965,7 +2850,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2983,6 +2868,7 @@
         <c:crossAx val="336027551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5069,95 +4955,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" sz="1600" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Mean of Enabled Exploit Mitigations for all firmwares</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE" sz="1600">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
@@ -5272,7 +5070,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5331,7 +5129,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5416,62 +5214,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Percentage of Executables with Exploit Mitigations Enabled per Firmware Image</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -5965,7 +5708,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6025,7 +5768,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6067,7 +5810,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -8091,10 +7834,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8132,7 +7875,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{74781C89-E927-480E-80DD-826A021A7BE6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.25</cx:f>
               <cx:v>Canary</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8162,10 +7905,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8203,7 +7946,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CD3D3AFB-F0EC-4041-B623-F269D1568799}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>FORTIFY_SOURCE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8233,10 +7976,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8279,7 +8022,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1CA3B0AF-FBE2-488E-B37A-23AFB12F8190}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>NX</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8309,10 +8052,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8350,7 +8093,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CB34B628-E6B1-446E-B79D-F3313E9206C4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.25</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>PIE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8380,10 +8123,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8438,7 +8181,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{806C733D-0DB2-4503-BAB8-C8F2E4F8C162}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>RELRO</cx:v>
             </cx:txData>
           </cx:tx>
@@ -21717,8 +21460,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23548,7 +23291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC8CDAC-A32A-463D-B45B-72E9FA4461F8}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -23794,7 +23537,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -24381,8 +24124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC100"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+    <sheetView topLeftCell="G74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -26391,7 +26134,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -26580,7 +26323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3739379-3DDD-44F6-A7F6-C36B7F0CAD1C}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
